--- a/output/【河洛話注音】京口北固亭懷古.xlsx
+++ b/output/【河洛話注音】京口北固亭懷古.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A33757A1-1E13-40AE-9E3D-D55A9E8C6CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6377B23-5188-4468-8A17-1025BA61737A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
+    <workbookView xWindow="-22020" yWindow="2235" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="45" r:id="rId1"/>

--- a/output/【河洛話注音】京口北固亭懷古.xlsx
+++ b/output/【河洛話注音】京口北固亭懷古.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0120BAC1-F470-4424-A1CA-AB651981B520}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC4E11-D487-4610-87D3-1F5FEA138127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="2130" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="45" r:id="rId1"/>
@@ -1773,1520 +1773,1520 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4</t>
+    <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍七語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;/p&gt;&lt;p class='author'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄞˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆬˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄤ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧㄣˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㆬ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄧㄚㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨㄢ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆰ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆰ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆵ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄆㄧㄢ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄣˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨㄣ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㆰˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄆㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄢˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;éng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;eng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bá&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;boān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;êng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu̍t&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;há&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;a&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sía&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;í&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huâi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbûan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gā&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hút&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sim5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thiat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ba2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kham1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hut8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ha2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;a1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div class='Siang_Pai'&gt;&lt;p class='title'&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rt&gt;gu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rt&gt;huai5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rt&gt;sun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rt&gt;sim5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆬˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rt&gt;hang7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rt&gt;tu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rt&gt;thiat4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rt&gt;ba2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rt&gt;thun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rt&gt;hoo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rt&gt;guan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rt&gt;kho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rt&gt;kham1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rt&gt;hut8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rt&gt;ha2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rt&gt;phian3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rt&gt;sin5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rt&gt;a1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rt&gt;sia2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rt&gt;huan2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>chian1</t>
+  </si>
+  <si>
+    <t>ch</t>
+  </si>
+  <si>
+    <t>cho2</t>
+  </si>
+  <si>
+    <t>chong1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rt&gt;cho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rt&gt;chong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>khoo2</t>
+  </si>
+  <si>
+    <t>miu5</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>thai1</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>tai5</t>
+  </si>
+  <si>
+    <t>cong2</t>
+  </si>
+  <si>
+    <t>ta2</t>
+  </si>
+  <si>
+    <t>sia5</t>
+  </si>
+  <si>
+    <t>hiong3</t>
+  </si>
+  <si>
+    <t>su1</t>
+  </si>
+  <si>
+    <t>bong7</t>
+  </si>
+  <si>
+    <t>ping5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩五毛&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄇㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄞ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄗㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khó͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;m̂iu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tá&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khóo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbniú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bíng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;miu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ta2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rt&gt;miu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄇㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rt&gt;thai1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄞ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rt&gt;cong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rt&gt;ta2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rt&gt;sia5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rt&gt;hiu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;bong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t>https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【十五音切語】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;div class='fifteen_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍七語&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經四邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>&lt;/p&gt;&lt;p class='author'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二去&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍七地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;觀七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠一求&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居三時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭一喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;高二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;君八喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;迦二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;居二英&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭五時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【方音符號注音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;div class='Piau_Im'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄞˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄤ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆬˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄤ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧㄣˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄥ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄨ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧㆬ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄧㄚㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄨㄣ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨㄢ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆢㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆣㄨㄢˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆻ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆴ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㆰ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㄧ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄐㄧㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆰ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆤˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㆵ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧㆵ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄆㄧㄢ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄣˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄚ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄍㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨㄧˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄨㄣ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㆰˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄆㄜ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㆲˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄨㄢˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【白話字拼音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;div class='pin_yin'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;éng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pek&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;eng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bá&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;boān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;êng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sì&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hu̍t&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sî&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;há&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;a&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sía&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;í&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【台羅拼音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huâi&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buān&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guân&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;îng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huán&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【閩拼標音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ggû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīk&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dû&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbûan&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gā&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbíong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǒ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;íong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hút&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;īt&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǐa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ǐ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;síong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【台羅改良式】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;gu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huai5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sim5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hang7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tu7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thiat4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ba2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thun1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;guan5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;kham1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hut8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ha2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;phian3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sin5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;a1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;huan2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">《京口北固亭懷古》【雙排注音】
 &lt;div class='separator' style='clear: both'&gt;
   &lt;a href='圖片' style='display: block; padding: 1em 0; text-align: center'&gt;
     &lt;img alt='京口北固亭懷古' border='0' width='400' data-original-height='630' data-original-width='1200'
-      src='https://ccc1960.blogspot.com/2022/11/%E6%B0%B8%E9%81%87%E6%A8%82%C2%B7%E4%BA%AC%F3%A0%87%A1%E5%8F%A3%F3%A0%87%A2%E5%8C%97%F3%A0%87%A1%E5%9B%BA%E4%BA%AD%E6%87%B7%E5%8F%A4' /&gt;
+      src='https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg' /&gt;
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
-  </si>
-  <si>
-    <t>&lt;div class='Siang_Pai'&gt;&lt;p class='title'&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;永&lt;/rb&gt;&lt;rt&gt;ing2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;遇&lt;/rb&gt;&lt;rt&gt;gu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;京&lt;/rb&gt;&lt;rt&gt;king1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;北&lt;/rb&gt;&lt;rt&gt;pik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;固&lt;/rb&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;亭&lt;/rb&gt;&lt;rt&gt;ting5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;懷&lt;/rb&gt;&lt;rt&gt;huai5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄞˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;古&lt;/rb&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;江&lt;/rb&gt;&lt;rt&gt;kang1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄤ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;山&lt;/rb&gt;&lt;rt&gt;san1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;英&lt;/rb&gt;&lt;rt&gt;ing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雄&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;無&lt;/rb&gt;&lt;rt&gt;bu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;覓&lt;/rb&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;孫&lt;/rb&gt;&lt;rt&gt;sun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;仲&lt;/rb&gt;&lt;rt&gt;tiong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;舞&lt;/rb&gt;&lt;rt&gt;bu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;榭&lt;/rb&gt;&lt;rt&gt;sia7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;歌&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;流&lt;/rb&gt;&lt;rt&gt;liu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;被&lt;/rb&gt;&lt;rt&gt;pi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;雨&lt;/rb&gt;&lt;rt&gt;u2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;去&lt;/rb&gt;&lt;rt&gt;khi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陽&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樹&lt;/rb&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尋&lt;/rb&gt;&lt;rt&gt;sim5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆬˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;常&lt;/rb&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;巷&lt;/rb&gt;&lt;rt&gt;hang7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄤ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;陌&lt;/rb&gt;&lt;rt&gt;bik8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;人&lt;/rb&gt;&lt;rt&gt;jin5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;道&lt;/rb&gt;&lt;rt&gt;to2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;寄&lt;/rb&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;奴&lt;/rb&gt;&lt;rt&gt;loo5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;曾&lt;/rb&gt;&lt;rt&gt;cing1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄥ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;住&lt;/rb&gt;&lt;rt&gt;tu7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄨ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;想&lt;/rb&gt;&lt;rt&gt;siong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;當&lt;/rb&gt;&lt;rt&gt;tong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;年&lt;/rb&gt;&lt;rt&gt;lian5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;金&lt;/rb&gt;&lt;rt&gt;kim1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧㆬ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;戈&lt;/rb&gt;&lt;rt&gt;ko1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鐵&lt;/rb&gt;&lt;rt&gt;thiat4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄧㄚㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;馬&lt;/rb&gt;&lt;rt&gt;ba2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;氣&lt;/rb&gt;&lt;rt&gt;khi3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吞&lt;/rb&gt;&lt;rt&gt;thun1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄨㄣ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;萬&lt;/rb&gt;&lt;rt&gt;buan7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄢ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;里&lt;/rb&gt;&lt;rt&gt;li2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;如&lt;/rb&gt;&lt;rt&gt;ji5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆢㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;虎&lt;/rb&gt;&lt;rt&gt;hoo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;元&lt;/rb&gt;&lt;rt&gt;guan5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆣㄨㄢˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;嘉&lt;/rb&gt;&lt;rt&gt;ka1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狼&lt;/rb&gt;&lt;rt&gt;long5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;居&lt;/rb&gt;&lt;rt&gt;ki1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;贏&lt;/rb&gt;&lt;rt&gt;ing5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;得&lt;/rb&gt;&lt;rt&gt;tik4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆻ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;皇&lt;/rb&gt;&lt;rt&gt;hong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;顧&lt;/rb&gt;&lt;rt&gt;koo3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;四&lt;/rb&gt;&lt;rt&gt;si3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;十&lt;/rb&gt;&lt;rt&gt;sip8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆴ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;三&lt;/rb&gt;&lt;rt&gt;sam1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;biong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;中&lt;/rb&gt;&lt;rt&gt;tiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;猶&lt;/rb&gt;&lt;rt&gt;iu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;記&lt;/rb&gt;&lt;rt&gt;ki3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㄧ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;烽&lt;/rb&gt;&lt;rt&gt;hiong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;火&lt;/rb&gt;&lt;rt&gt;ho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;揚&lt;/rb&gt;&lt;rt&gt;iong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;州&lt;/rb&gt;&lt;rt&gt;ciu1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄐㄧㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;路&lt;/rb&gt;&lt;rt&gt;loo7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;可&lt;/rb&gt;&lt;rt&gt;kho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;堪&lt;/rb&gt;&lt;rt&gt;kham1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆰ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;回&lt;/rb&gt;&lt;rt&gt;hue5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆤˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;首&lt;/rb&gt;&lt;rt&gt;siu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;佛&lt;/rb&gt;&lt;rt&gt;hut8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㆵ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;狸&lt;/rb&gt;&lt;rt&gt;li5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;祠&lt;/rb&gt;&lt;rt&gt;si5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;下&lt;/rb&gt;&lt;rt&gt;ha2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;一&lt;/rb&gt;&lt;rt&gt;it4&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧㆵ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;片&lt;/rb&gt;&lt;rt&gt;phian3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄧㄢ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;神&lt;/rb&gt;&lt;rt&gt;sin5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄣˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鴉&lt;/rb&gt;&lt;rt&gt;a1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄚ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;社&lt;/rb&gt;&lt;rt&gt;sia2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;鼓&lt;/rb&gt;&lt;rt&gt;koo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄍㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;誰&lt;/rb&gt;&lt;rt&gt;sui5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨㄧˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;問&lt;/rb&gt;&lt;rt&gt;bun7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄨㄣ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;廉&lt;/rb&gt;&lt;rt&gt;liam5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㆰˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;頗&lt;/rb&gt;&lt;rt&gt;pho1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄆㄜ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;老&lt;/rb&gt;&lt;rt&gt;lo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;矣&lt;/rb&gt;&lt;rt&gt;i2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;尚&lt;/rb&gt;&lt;rt&gt;siong5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㆲˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;能&lt;/rb&gt;&lt;rt&gt;ling5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;飯&lt;/rb&gt;&lt;rt&gt;huan2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄨㄢˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>chian1</t>
-  </si>
-  <si>
-    <t>ch</t>
-  </si>
-  <si>
-    <t>cho2</t>
-  </si>
-  <si>
-    <t>chong1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄜˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㆲ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshó&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cho2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chong1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;草&lt;/rb&gt;&lt;rt&gt;cho2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄜˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;倉&lt;/rb&gt;&lt;rt&gt;chong1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㆲ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>khoo2</t>
-  </si>
-  <si>
-    <t>miu5</t>
-  </si>
-  <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>thai1</t>
-  </si>
-  <si>
-    <t>ai</t>
-  </si>
-  <si>
-    <t>tai5</t>
-  </si>
-  <si>
-    <t>cong2</t>
-  </si>
-  <si>
-    <t>ta2</t>
-  </si>
-  <si>
-    <t>sia5</t>
-  </si>
-  <si>
-    <t>hiong3</t>
-  </si>
-  <si>
-    <t>su1</t>
-  </si>
-  <si>
-    <t>bong7</t>
-  </si>
-  <si>
-    <t>ping5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩五毛&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;膠二地&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭三喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍一時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;經五邊&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;丩二喜&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄌㆦㆻ˙&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄎㆦˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄇㄧㄨˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄊㄞ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄗㆲˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄉㄚˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄒㄧㄚˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄅㄧㄥˊ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㄧㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lo̍k&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khó͘&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;m̂iu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tá&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sîa&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hìong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pêng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;híu&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khóo&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tsóng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;pîng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbniú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;dǎ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sū&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bíng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;miu5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;thai1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cong2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ta2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sia5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hiu2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;樂&lt;/rb&gt;&lt;rt&gt;lok8&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄌㆦㆻ˙&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;口&lt;/rb&gt;&lt;rt&gt;khoo2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄎㆦˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;謀&lt;/rb&gt;&lt;rt&gt;miu5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄇㄧㄨˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;台&lt;/rb&gt;&lt;rt&gt;thai1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄊㄞ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;總&lt;/rb&gt;&lt;rt&gt;cong2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄗㆲˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;打&lt;/rb&gt;&lt;rt&gt;ta2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄉㄚˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;斜&lt;/rb&gt;&lt;rt&gt;sia5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄒㄧㄚˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rt&gt;hiong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rt&gt;su1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;憑&lt;/rb&gt;&lt;rt&gt;ping5&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄅㄧㄥˊ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;否&lt;/rb&gt;&lt;rt&gt;hiu2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㄧㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -4526,7 +4526,7 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>987</v>
+        <v>967</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -4565,7 +4565,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="C7" t="s">
         <v>124</v>
@@ -4700,10 +4700,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>958</v>
+        <v>938</v>
       </c>
       <c r="C16" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D16" t="s">
         <v>139</v>
@@ -4910,10 +4910,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>989</v>
+        <v>969</v>
       </c>
       <c r="C28" t="s">
-        <v>990</v>
+        <v>970</v>
       </c>
       <c r="D28" t="s">
         <v>160</v>
@@ -4933,7 +4933,7 @@
         <v>525</v>
       </c>
       <c r="C29" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D29" t="s">
         <v>118</v>
@@ -5020,13 +5020,13 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="C35" t="s">
         <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>992</v>
+        <v>972</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5045,16 +5045,16 @@
         <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C37" t="s">
         <v>131</v>
       </c>
       <c r="D37" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -5085,7 +5085,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>994</v>
+        <v>974</v>
       </c>
       <c r="C39" t="s">
         <v>539</v>
@@ -5150,7 +5150,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
       <c r="C43" t="s">
         <v>129</v>
@@ -5170,16 +5170,16 @@
         <v>30</v>
       </c>
       <c r="B44" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C44" t="s">
         <v>131</v>
       </c>
       <c r="D44" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -5193,7 +5193,7 @@
         <v>532</v>
       </c>
       <c r="C45" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D45" t="s">
         <v>162</v>
@@ -5240,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="C49" t="s">
         <v>134</v>
@@ -5280,10 +5280,10 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="C51" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D51" t="s">
         <v>157</v>
@@ -5865,10 +5865,10 @@
         <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="C87" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D87" t="s">
         <v>157</v>
@@ -5885,10 +5885,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>960</v>
+        <v>940</v>
       </c>
       <c r="C88" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D88" t="s">
         <v>157</v>
@@ -5910,7 +5910,7 @@
         <v>68</v>
       </c>
       <c r="B90" t="s">
-        <v>997</v>
+        <v>527</v>
       </c>
       <c r="C90" t="s">
         <v>131</v>
@@ -5919,7 +5919,7 @@
         <v>144</v>
       </c>
       <c r="E90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -5970,7 +5970,7 @@
         <v>71</v>
       </c>
       <c r="B93" t="s">
-        <v>998</v>
+        <v>535</v>
       </c>
       <c r="C93" t="s">
         <v>134</v>
@@ -5979,7 +5979,7 @@
         <v>147</v>
       </c>
       <c r="E93">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93">
         <v>2</v>
@@ -6035,10 +6035,10 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>961</v>
+        <v>941</v>
       </c>
       <c r="C97" t="s">
-        <v>959</v>
+        <v>939</v>
       </c>
       <c r="D97" t="s">
         <v>135</v>
@@ -6210,16 +6210,16 @@
         <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>547</v>
+        <v>979</v>
       </c>
       <c r="C108" t="s">
         <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="E108">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F108">
         <v>2</v>
@@ -6705,7 +6705,7 @@
         <v>103</v>
       </c>
       <c r="B138" t="s">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="C138" t="s">
         <v>126</v>
@@ -7050,7 +7050,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>991</v>
+        <v>971</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -7067,7 +7067,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>993</v>
+        <v>973</v>
       </c>
       <c r="E7">
         <v>0.6</v>
@@ -7095,16 +7095,16 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C9" t="s">
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -7112,16 +7112,16 @@
         <v>37</v>
       </c>
       <c r="B10">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E10">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7203,7 +7203,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>995</v>
+        <v>975</v>
       </c>
       <c r="E15">
         <v>0.6</v>
@@ -7248,16 +7248,16 @@
         <v>44</v>
       </c>
       <c r="B18">
-        <v>148</v>
+        <v>14633</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -7265,16 +7265,16 @@
         <v>44</v>
       </c>
       <c r="B19">
-        <v>14633</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
         <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E19">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -7356,7 +7356,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>996</v>
+        <v>976</v>
       </c>
       <c r="E24">
         <v>0.6</v>
@@ -7622,16 +7622,16 @@
         <v>90</v>
       </c>
       <c r="B40">
-        <v>14686</v>
+        <v>506</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>997</v>
+        <v>527</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -7639,16 +7639,16 @@
         <v>90</v>
       </c>
       <c r="B41">
-        <v>506</v>
+        <v>14686</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>527</v>
+        <v>977</v>
       </c>
       <c r="E41">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -7690,16 +7690,16 @@
         <v>93</v>
       </c>
       <c r="B44">
-        <v>2081</v>
+        <v>10658</v>
       </c>
       <c r="C44" t="s">
         <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>998</v>
+        <v>535</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -7707,16 +7707,16 @@
         <v>93</v>
       </c>
       <c r="B45">
-        <v>10658</v>
+        <v>2081</v>
       </c>
       <c r="C45" t="s">
         <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>535</v>
+        <v>978</v>
       </c>
       <c r="E45">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -7758,16 +7758,16 @@
         <v>108</v>
       </c>
       <c r="B48">
-        <v>7155</v>
+        <v>18920</v>
       </c>
       <c r="C48" t="s">
         <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>547</v>
+        <v>979</v>
       </c>
       <c r="E48">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7775,16 +7775,16 @@
         <v>108</v>
       </c>
       <c r="B49">
-        <v>18920</v>
+        <v>7155</v>
       </c>
       <c r="C49" t="s">
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>999</v>
+        <v>547</v>
       </c>
       <c r="E49">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -8253,7 +8253,7 @@
   <dimension ref="B1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="25.5"/>
@@ -8301,7 +8301,7 @@
         <v>568</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>570</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>
@@ -8321,14 +8321,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>864</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>865</v>
+        <v>847</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8338,17 +8338,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>866</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>867</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1048</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8358,37 +8358,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>868</v>
+        <v>850</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1049</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>870</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>871</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>872</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -8398,7 +8398,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -8408,22 +8408,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>982</v>
+        <v>962</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>873</v>
+        <v>855</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>874</v>
+        <v>856</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>875</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -8433,22 +8433,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>876</v>
+        <v>858</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>877</v>
+        <v>859</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>878</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>879</v>
+        <v>861</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -8458,22 +8458,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>880</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>881</v>
+        <v>863</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1050</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>983</v>
+        <v>963</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8488,22 +8488,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>882</v>
+        <v>864</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>883</v>
+        <v>865</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>884</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1051</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -8513,22 +8513,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>885</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>886</v>
+        <v>867</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1052</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>887</v>
+        <v>868</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -8538,27 +8538,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>888</v>
+        <v>869</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1053</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>885</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>984</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8573,22 +8573,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1054</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>890</v>
+        <v>871</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>891</v>
+        <v>872</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -8598,22 +8598,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>892</v>
+        <v>873</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>893</v>
+        <v>874</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>894</v>
+        <v>875</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>895</v>
+        <v>876</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8623,32 +8623,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>896</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>897</v>
+        <v>878</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>898</v>
+        <v>879</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>899</v>
+        <v>880</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>900</v>
+        <v>881</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>901</v>
+        <v>882</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8663,17 +8663,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>902</v>
+        <v>883</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>903</v>
+        <v>884</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -8683,22 +8683,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>905</v>
+        <v>886</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>906</v>
+        <v>887</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>907</v>
+        <v>888</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>908</v>
+        <v>889</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -8708,32 +8708,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>909</v>
+        <v>890</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>910</v>
+        <v>891</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>911</v>
+        <v>892</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>912</v>
+        <v>893</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>913</v>
+        <v>894</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>914</v>
+        <v>895</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -8753,22 +8753,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>915</v>
+        <v>896</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>916</v>
+        <v>897</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>985</v>
+        <v>965</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -8778,22 +8778,22 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>917</v>
+        <v>898</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>918</v>
+        <v>899</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -8803,32 +8803,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>919</v>
+        <v>900</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>920</v>
+        <v>901</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>986</v>
+        <v>966</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>921</v>
+        <v>902</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>869</v>
+        <v>851</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>922</v>
+        <v>903</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -8843,22 +8843,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>923</v>
+        <v>904</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>924</v>
+        <v>905</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>925</v>
+        <v>906</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>904</v>
+        <v>885</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -8868,22 +8868,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>926</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>927</v>
+        <v>907</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>928</v>
+        <v>908</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>929</v>
+        <v>909</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -8893,27 +8893,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>930</v>
+        <v>910</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>931</v>
+        <v>911</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>932</v>
+        <v>912</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>933</v>
+        <v>913</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>934</v>
+        <v>914</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -8928,22 +8928,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>935</v>
+        <v>915</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>936</v>
+        <v>916</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>937</v>
+        <v>917</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>938</v>
+        <v>918</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -8953,22 +8953,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>939</v>
+        <v>919</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>940</v>
+        <v>920</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>941</v>
+        <v>921</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>942</v>
+        <v>922</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -8978,32 +8978,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>943</v>
+        <v>923</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>944</v>
+        <v>924</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>945</v>
+        <v>925</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>946</v>
+        <v>926</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>947</v>
+        <v>927</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>948</v>
+        <v>928</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -9018,17 +9018,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1057</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>949</v>
+        <v>929</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>950</v>
+        <v>930</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -9038,22 +9038,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>951</v>
+        <v>931</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>952</v>
+        <v>932</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>953</v>
+        <v>933</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>954</v>
+        <v>934</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -9063,22 +9063,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>955</v>
+        <v>935</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>956</v>
+        <v>936</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>957</v>
+        <v>937</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1058</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -9113,14 +9113,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>771</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9130,17 +9130,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1037</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9150,37 +9150,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1038</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -9190,7 +9190,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -9200,22 +9200,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>977</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -9225,22 +9225,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -9250,22 +9250,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1039</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>978</v>
+        <v>958</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9280,22 +9280,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1040</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9305,22 +9305,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>791</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>792</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1041</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>793</v>
+        <v>777</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -9330,27 +9330,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>794</v>
+        <v>778</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1042</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>791</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>979</v>
+        <v>959</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -9365,22 +9365,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1043</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>796</v>
+        <v>780</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>797</v>
+        <v>781</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -9390,22 +9390,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>798</v>
+        <v>782</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>799</v>
+        <v>783</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>800</v>
+        <v>784</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>801</v>
+        <v>785</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -9415,32 +9415,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>802</v>
+        <v>786</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -9455,17 +9455,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -9475,22 +9475,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -9500,32 +9500,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>820</v>
+        <v>804</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -9545,22 +9545,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>822</v>
+        <v>806</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>980</v>
+        <v>960</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -9575,12 +9575,12 @@
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>823</v>
+        <v>807</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>824</v>
+        <v>808</v>
       </c>
     </row>
     <row r="95" spans="1:1">
@@ -9595,32 +9595,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>825</v>
+        <v>809</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>826</v>
+        <v>810</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>981</v>
+        <v>961</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>827</v>
+        <v>811</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>828</v>
+        <v>812</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -9635,22 +9635,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>829</v>
+        <v>813</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>830</v>
+        <v>814</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>831</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -9660,22 +9660,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>832</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>833</v>
+        <v>816</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>834</v>
+        <v>817</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>835</v>
+        <v>818</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -9685,27 +9685,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>836</v>
+        <v>819</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>837</v>
+        <v>820</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>838</v>
+        <v>821</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>839</v>
+        <v>822</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>840</v>
+        <v>823</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -9720,22 +9720,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>841</v>
+        <v>824</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>842</v>
+        <v>825</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>843</v>
+        <v>826</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>844</v>
+        <v>827</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -9745,22 +9745,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>845</v>
+        <v>828</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>846</v>
+        <v>829</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>847</v>
+        <v>830</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>848</v>
+        <v>831</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -9770,32 +9770,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>849</v>
+        <v>832</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>850</v>
+        <v>833</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>851</v>
+        <v>834</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>852</v>
+        <v>835</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>853</v>
+        <v>836</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>854</v>
+        <v>837</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -9810,17 +9810,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1046</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>855</v>
+        <v>838</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -9830,22 +9830,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>857</v>
+        <v>840</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>858</v>
+        <v>841</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>859</v>
+        <v>842</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -9855,22 +9855,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>861</v>
+        <v>844</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>862</v>
+        <v>845</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>863</v>
+        <v>846</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1047</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -9905,14 +9905,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>739</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9922,12 +9922,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>740</v>
+        <v>728</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9952,7 +9952,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9982,7 +9982,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10017,12 +10017,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -10052,7 +10052,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1032</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -10097,7 +10097,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>745</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10112,7 +10112,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10122,17 +10122,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>747</v>
+        <v>734</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1033</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>745</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -10142,7 +10142,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>748</v>
+        <v>735</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10162,7 +10162,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>749</v>
+        <v>736</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -10172,7 +10172,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>750</v>
+        <v>737</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10187,7 +10187,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>751</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -10212,7 +10212,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>752</v>
+        <v>739</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -10232,7 +10232,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>753</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -10247,7 +10247,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>754</v>
+        <v>741</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -10282,7 +10282,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>755</v>
+        <v>742</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -10302,7 +10302,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>756</v>
+        <v>743</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -10342,7 +10342,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>757</v>
+        <v>744</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -10362,7 +10362,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1025</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -10377,7 +10377,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1034</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -10387,7 +10387,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>758</v>
+        <v>745</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -10407,7 +10407,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -10427,7 +10427,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -10452,7 +10452,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>759</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -10462,7 +10462,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -10477,17 +10477,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -10537,7 +10537,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -10547,12 +10547,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -10562,7 +10562,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -10582,7 +10582,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -10602,7 +10602,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1035</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -10637,7 +10637,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -10647,7 +10647,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -10662,7 +10662,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1036</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -10697,14 +10697,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10714,17 +10714,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -10739,12 +10739,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1029</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10759,7 +10759,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>733</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -10774,7 +10774,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10784,7 +10784,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>972</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -10809,12 +10809,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>734</v>
+        <v>723</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -10844,12 +10844,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>973</v>
+        <v>953</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10879,7 +10879,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10889,7 +10889,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>702</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10899,12 +10899,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1030</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10914,27 +10914,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>702</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>974</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10949,22 +10949,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10979,7 +10979,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -11004,7 +11004,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11024,7 +11024,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -11039,7 +11039,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -11074,7 +11074,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -11094,7 +11094,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>735</v>
+        <v>724</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -11129,22 +11129,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>736</v>
+        <v>725</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>975</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -11154,7 +11154,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -11169,7 +11169,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -11179,7 +11179,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>737</v>
+        <v>726</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -11189,7 +11189,7 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>976</v>
+        <v>956</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -11199,7 +11199,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>732</v>
+        <v>721</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -11219,7 +11219,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -11244,7 +11244,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>717</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -11254,7 +11254,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -11269,17 +11269,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -11329,7 +11329,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -11339,12 +11339,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -11354,7 +11354,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -11369,12 +11369,12 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -11394,7 +11394,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1031</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -11429,7 +11429,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -11439,7 +11439,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -11449,12 +11449,12 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>738</v>
+        <v>727</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -11489,14 +11489,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>695</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -11506,17 +11506,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1018</v>
+        <v>994</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -11531,12 +11531,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1019</v>
+        <v>995</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -11566,7 +11566,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11576,7 +11576,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>967</v>
+        <v>947</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11601,12 +11601,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -11636,12 +11636,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1020</v>
+        <v>996</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>968</v>
+        <v>948</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11671,7 +11671,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1021</v>
+        <v>997</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -11681,7 +11681,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>702</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -11691,12 +11691,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1022</v>
+        <v>998</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -11706,27 +11706,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>702</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>969</v>
+        <v>949</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -11741,22 +11741,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -11771,7 +11771,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -11796,7 +11796,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11816,7 +11816,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -11831,7 +11831,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -11866,7 +11866,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -11886,7 +11886,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -11926,17 +11926,17 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>970</v>
+        <v>950</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -11946,7 +11946,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1025</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -11961,7 +11961,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1026</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -11971,7 +11971,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -11981,7 +11981,7 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>971</v>
+        <v>951</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -11991,7 +11991,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -12011,7 +12011,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -12036,7 +12036,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>717</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -12046,7 +12046,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -12061,17 +12061,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -12121,7 +12121,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -12131,12 +12131,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -12146,7 +12146,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -12161,12 +12161,12 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -12186,7 +12186,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1027</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -12221,7 +12221,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -12231,7 +12231,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -12246,7 +12246,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1028</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -12281,14 +12281,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -12298,17 +12298,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1007</v>
+        <v>985</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -12318,37 +12318,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1008</v>
+        <v>986</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -12358,7 +12358,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -12368,22 +12368,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>962</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -12393,22 +12393,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -12418,22 +12418,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1009</v>
+        <v>987</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>963</v>
+        <v>943</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12448,22 +12448,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1010</v>
+        <v>988</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -12473,22 +12473,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>622</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1011</v>
+        <v>989</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -12498,27 +12498,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1012</v>
+        <v>990</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>622</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>964</v>
+        <v>944</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -12533,22 +12533,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1013</v>
+        <v>991</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -12558,22 +12558,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -12583,32 +12583,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -12623,17 +12623,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -12643,22 +12643,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -12668,32 +12668,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -12713,22 +12713,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>965</v>
+        <v>945</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -12738,22 +12738,22 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1014</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1015</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -12763,32 +12763,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>966</v>
+        <v>946</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -12803,22 +12803,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -12828,22 +12828,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>663</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -12853,27 +12853,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -12888,22 +12888,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -12913,22 +12913,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -12938,32 +12938,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -12978,17 +12978,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1016</v>
+        <v>992</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -12998,22 +12998,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -13023,22 +13023,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1017</v>
+        <v>993</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -13857,14 +13857,14 @@
     <col min="1" max="1" width="128.6328125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="255">
+    <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>571</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -13879,7 +13879,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -13904,7 +13904,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -13934,7 +13934,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13974,7 +13974,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -14004,7 +14004,7 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1001</v>
+        <v>981</v>
       </c>
     </row>
     <row r="31" spans="1:1">
@@ -14049,7 +14049,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>577</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14064,7 +14064,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -14074,17 +14074,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1002</v>
+        <v>982</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>577</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -14094,7 +14094,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -14114,7 +14114,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -14124,7 +14124,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -14139,7 +14139,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -14164,7 +14164,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -14184,7 +14184,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -14199,7 +14199,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -14234,7 +14234,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -14254,7 +14254,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -14294,7 +14294,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -14314,7 +14314,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1003</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -14329,7 +14329,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1004</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -14359,7 +14359,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -14379,7 +14379,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -14404,7 +14404,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>591</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -14429,17 +14429,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -14489,7 +14489,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -14499,12 +14499,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -14534,7 +14534,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -14554,7 +14554,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1005</v>
+        <v>983</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -14589,7 +14589,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -14599,7 +14599,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -14614,7 +14614,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1006</v>
+        <v>984</v>
       </c>
     </row>
     <row r="153" spans="1:1">

--- a/output/【河洛話注音】京口北固亭懷古.xlsx
+++ b/output/【河洛話注音】京口北固亭懷古.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEC4E11-D487-4610-87D3-1F5FEA138127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D81D9-F14B-4569-BF44-3281AB812C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="45" r:id="rId1"/>

--- a/output/【河洛話注音】京口北固亭懷古.xlsx
+++ b/output/【河洛話注音】京口北固亭懷古.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Piau-Im\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44D81D9-F14B-4569-BF44-3281AB812C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFED3891-786C-450A-947B-8DC9A9720071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="17280" windowHeight="12870" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="28800" windowHeight="11295" firstSheet="1" activeTab="1" xr2:uid="{E693FAA9-3885-7942-89D0-D7B6B37754A0}"/>
   </bookViews>
   <sheets>
     <sheet name="閩拼拼音" sheetId="45" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1059">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2049" uniqueCount="1062">
   <si>
     <t>《</t>
   </si>
@@ -1700,9 +1700,6 @@
     <t>si3</t>
   </si>
   <si>
-    <t>biong5</t>
-  </si>
-  <si>
     <t>Øiu5</t>
   </si>
   <si>
@@ -2892,9 +2889,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧㄢ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄑㄧˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨㄧ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2907,9 +2901,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2922,9 +2913,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshian&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshí&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshui&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2937,9 +2925,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -2952,9 +2937,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;千&lt;/rb&gt;&lt;rt&gt;chian1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧㄢ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rt&gt;chi2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄑㄧˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;吹&lt;/rb&gt;&lt;rt&gt;chui1&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨㄧ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3000,9 +2982,6 @@
     <t>su1</t>
   </si>
   <si>
-    <t>bong7</t>
-  </si>
-  <si>
     <t>ping5</t>
   </si>
   <si>
@@ -3156,9 +3135,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍二時&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;公七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄏㆲ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3168,9 +3144,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄙㄨˋ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hòng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3180,18 +3153,12 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sú&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bōng&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;封&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;sǔ&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbông&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3201,9 +3168,6 @@
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;風&lt;/rb&gt;&lt;rt&gt;hong3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄏㆲ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
@@ -3211,9 +3175,6 @@
   </si>
   <si>
     <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;胥&lt;/rb&gt;&lt;rt&gt;su2&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄙㄨˋ&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;bong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
   <si>
     <t>https://img.guwenxuexi.com/wp-content/uploads/2017/05/4-7.jpg</t>
@@ -3287,6 +3248,54 @@
   &lt;/a&gt;
 &lt;/div&gt;
 </t>
+  </si>
+  <si>
+    <t>chu3</t>
+  </si>
+  <si>
+    <t>biong7</t>
+  </si>
+  <si>
+    <t>bong5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;艍三出&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;恭七門&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㄘㄨ˪&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;ㆠㄧㆲ˫&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chhù&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bīong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;tshù&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;cù&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;bbîong&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;chu3&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rt&gt;biong7&lt;/rt&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;處&lt;/rb&gt;&lt;rt&gt;chu3&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㄘㄨ˪&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  &lt;ruby&gt;&lt;rb&gt;望&lt;/rb&gt;&lt;rt&gt;biong7&lt;/rt&gt;&lt;rp&gt;(&lt;/rp&gt;&lt;rtc&gt;ㆠㄧㆲ˫&lt;/rtc&gt;&lt;rp&gt;)&lt;/rp&gt;&lt;/ruby&gt;</t>
   </si>
 </sst>
 </file>
@@ -4526,7 +4535,7 @@
         <v>120</v>
       </c>
       <c r="D4" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="E4">
         <v>8</v>
@@ -4565,7 +4574,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="C7" t="s">
         <v>124</v>
@@ -4700,10 +4709,10 @@
         <v>13</v>
       </c>
       <c r="B16" t="s">
+        <v>937</v>
+      </c>
+      <c r="C16" t="s">
         <v>938</v>
-      </c>
-      <c r="C16" t="s">
-        <v>939</v>
       </c>
       <c r="D16" t="s">
         <v>139</v>
@@ -4910,10 +4919,10 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="C28" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="D28" t="s">
         <v>160</v>
@@ -4930,16 +4939,16 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>525</v>
+        <v>1046</v>
       </c>
       <c r="C29" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D29" t="s">
-        <v>118</v>
+        <v>147</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -5020,13 +5029,13 @@
         <v>29</v>
       </c>
       <c r="B35" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="C35" t="s">
         <v>158</v>
       </c>
       <c r="D35" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -5085,7 +5094,7 @@
         <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="C39" t="s">
         <v>539</v>
@@ -5150,7 +5159,7 @@
         <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="C43" t="s">
         <v>129</v>
@@ -5193,7 +5202,7 @@
         <v>532</v>
       </c>
       <c r="C45" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D45" t="s">
         <v>162</v>
@@ -5240,7 +5249,7 @@
         <v>39</v>
       </c>
       <c r="B49" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="C49" t="s">
         <v>134</v>
@@ -5280,10 +5289,10 @@
         <v>41</v>
       </c>
       <c r="B51" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C51" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D51" t="s">
         <v>157</v>
@@ -5865,10 +5874,10 @@
         <v>41</v>
       </c>
       <c r="B87" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C87" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D87" t="s">
         <v>157</v>
@@ -5885,10 +5894,10 @@
         <v>41</v>
       </c>
       <c r="B88" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C88" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D88" t="s">
         <v>157</v>
@@ -6035,10 +6044,10 @@
         <v>74</v>
       </c>
       <c r="B97" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C97" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D97" t="s">
         <v>135</v>
@@ -6210,13 +6219,13 @@
         <v>80</v>
       </c>
       <c r="B108" t="s">
-        <v>979</v>
+        <v>1047</v>
       </c>
       <c r="C108" t="s">
         <v>146</v>
       </c>
       <c r="D108" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="E108">
         <v>7</v>
@@ -6250,7 +6259,7 @@
         <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C110" t="s">
         <v>519</v>
@@ -6315,7 +6324,7 @@
         <v>85</v>
       </c>
       <c r="B114" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C114" t="s">
         <v>131</v>
@@ -6355,7 +6364,7 @@
         <v>87</v>
       </c>
       <c r="B116" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C116" t="s">
         <v>539</v>
@@ -6530,7 +6539,7 @@
         <v>95</v>
       </c>
       <c r="B127" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -6550,7 +6559,7 @@
         <v>96</v>
       </c>
       <c r="B128" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C128" t="s">
         <v>131</v>
@@ -6575,7 +6584,7 @@
         <v>97</v>
       </c>
       <c r="B130" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C130" t="s">
         <v>519</v>
@@ -6635,7 +6644,7 @@
         <v>100</v>
       </c>
       <c r="B133" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C133" t="s">
         <v>519</v>
@@ -6655,7 +6664,7 @@
         <v>101</v>
       </c>
       <c r="B134" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C134" t="s">
         <v>134</v>
@@ -6705,7 +6714,7 @@
         <v>103</v>
       </c>
       <c r="B138" t="s">
-        <v>980</v>
+        <v>973</v>
       </c>
       <c r="C138" t="s">
         <v>126</v>
@@ -6830,7 +6839,7 @@
         <v>110</v>
       </c>
       <c r="B145" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C145" t="s">
         <v>519</v>
@@ -6915,7 +6924,7 @@
         <v>114</v>
       </c>
       <c r="B150" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C150" t="s">
         <v>131</v>
@@ -7010,16 +7019,16 @@
         <v>29</v>
       </c>
       <c r="B4">
-        <v>10647</v>
+        <v>15614</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>525</v>
+        <v>1046</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -7027,7 +7036,7 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>15614</v>
+        <v>10647</v>
       </c>
       <c r="C5" t="s">
         <v>24</v>
@@ -7050,7 +7059,7 @@
         <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="E6">
         <v>0.6</v>
@@ -7067,7 +7076,7 @@
         <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="E7">
         <v>0.6</v>
@@ -7203,7 +7212,7 @@
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="E15">
         <v>0.6</v>
@@ -7356,7 +7365,7 @@
         <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="E24">
         <v>0.6</v>
@@ -7645,7 +7654,7 @@
         <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -7713,7 +7722,7 @@
         <v>71</v>
       </c>
       <c r="D45" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -7764,10 +7773,10 @@
         <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>979</v>
+        <v>1047</v>
       </c>
       <c r="E48">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7781,10 +7790,10 @@
         <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>547</v>
+        <v>1048</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7832,7 +7841,7 @@
         <v>82</v>
       </c>
       <c r="D52" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -7849,7 +7858,7 @@
         <v>82</v>
       </c>
       <c r="D53" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -7866,7 +7875,7 @@
         <v>82</v>
       </c>
       <c r="D54" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -7917,7 +7926,7 @@
         <v>96</v>
       </c>
       <c r="D57" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -7934,7 +7943,7 @@
         <v>96</v>
       </c>
       <c r="D58" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -8053,7 +8062,7 @@
         <v>112</v>
       </c>
       <c r="D65" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E65">
         <v>0</v>
@@ -8070,7 +8079,7 @@
         <v>112</v>
       </c>
       <c r="D66" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E66">
         <v>0</v>
@@ -8087,7 +8096,7 @@
         <v>112</v>
       </c>
       <c r="D67" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -8138,7 +8147,7 @@
         <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E70">
         <v>0.6</v>
@@ -8266,42 +8275,42 @@
   <sheetData>
     <row r="1" spans="2:3">
       <c r="B1" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="2" spans="2:3">
       <c r="B2" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="B3" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>565</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="4" spans="2:3">
       <c r="B4" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>1051</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -8323,12 +8332,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1058</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -8338,17 +8347,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -8358,37 +8367,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -8398,7 +8407,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -8408,22 +8417,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -8433,22 +8442,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -8458,22 +8467,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>963</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -8488,22 +8497,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -8513,22 +8522,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -8538,27 +8547,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -8573,22 +8582,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -8598,22 +8607,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -8623,32 +8632,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -8663,17 +8672,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -8683,22 +8692,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -8708,32 +8717,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -8753,22 +8762,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -8778,22 +8787,22 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -8803,32 +8812,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -8843,22 +8852,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -8868,22 +8877,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1050</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -8893,27 +8902,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -8928,22 +8937,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -8953,22 +8962,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -8978,32 +8987,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -9018,17 +9027,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -9038,22 +9047,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -9063,22 +9072,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -9115,12 +9124,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1057</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9130,17 +9139,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -9150,37 +9159,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -9190,7 +9199,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -9200,22 +9209,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -9225,22 +9234,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -9250,22 +9259,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>958</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -9280,22 +9289,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -9305,22 +9314,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -9330,27 +9339,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -9365,22 +9374,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -9390,22 +9399,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -9415,32 +9424,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -9455,17 +9464,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -9475,22 +9484,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -9500,32 +9509,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -9545,22 +9554,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -9570,22 +9579,22 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -9595,32 +9604,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -9635,22 +9644,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -9660,22 +9669,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1046</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -9685,27 +9694,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -9720,22 +9729,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -9745,22 +9754,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -9770,32 +9779,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -9810,17 +9819,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -9830,22 +9839,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -9855,22 +9864,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -9907,12 +9916,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1056</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -9922,12 +9931,12 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -9952,7 +9961,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -9982,7 +9991,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10017,12 +10026,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -10052,12 +10061,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>418</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10097,7 +10106,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10112,7 +10121,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10122,17 +10131,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -10142,7 +10151,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10162,7 +10171,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -10172,7 +10181,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10187,7 +10196,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -10212,7 +10221,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -10232,7 +10241,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -10247,7 +10256,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -10282,7 +10291,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -10302,7 +10311,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -10342,7 +10351,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -10362,7 +10371,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1040</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -10377,7 +10386,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -10387,7 +10396,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -10407,7 +10416,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -10427,7 +10436,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -10452,7 +10461,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1042</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -10462,7 +10471,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -10477,17 +10486,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -10537,7 +10546,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -10547,12 +10556,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -10562,7 +10571,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -10582,7 +10591,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -10602,7 +10611,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -10637,7 +10646,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -10647,7 +10656,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -10662,7 +10671,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -10699,12 +10708,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1055</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -10714,17 +10723,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -10739,12 +10748,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -10759,7 +10768,7 @@
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="14" spans="1:1">
@@ -10774,7 +10783,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -10784,7 +10793,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -10809,12 +10818,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -10844,12 +10853,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>953</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -10879,7 +10888,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -10889,7 +10898,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -10899,12 +10908,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -10914,27 +10923,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -10949,22 +10958,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -10979,7 +10988,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -11004,7 +11013,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11024,7 +11033,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -11039,7 +11048,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -11074,7 +11083,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -11094,7 +11103,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -11129,22 +11138,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -11154,7 +11163,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -11169,7 +11178,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -11179,7 +11188,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -11189,7 +11198,7 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -11199,7 +11208,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -11219,7 +11228,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -11244,7 +11253,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -11254,7 +11263,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -11269,17 +11278,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -11329,7 +11338,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -11339,12 +11348,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -11354,7 +11363,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -11369,12 +11378,12 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -11394,7 +11403,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -11429,7 +11438,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -11439,7 +11448,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -11449,12 +11458,12 @@
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -11491,12 +11500,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1054</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -11506,17 +11515,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -11531,12 +11540,12 @@
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -11566,7 +11575,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -11576,7 +11585,7 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -11601,12 +11610,12 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -11636,12 +11645,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>948</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -11671,7 +11680,7 @@
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -11681,7 +11690,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -11691,12 +11700,12 @@
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -11706,27 +11715,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -11741,22 +11750,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -11771,7 +11780,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -11796,7 +11805,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -11816,7 +11825,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -11831,7 +11840,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -11866,7 +11875,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -11886,7 +11895,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -11926,17 +11935,17 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -11946,7 +11955,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -11961,7 +11970,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -11971,7 +11980,7 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="98" spans="1:1">
@@ -11981,7 +11990,7 @@
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
     </row>
     <row r="100" spans="1:1">
@@ -11991,7 +12000,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -12011,7 +12020,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -12036,7 +12045,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1039</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -12046,7 +12055,7 @@
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="113" spans="1:1">
@@ -12061,17 +12070,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -12121,7 +12130,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -12131,12 +12140,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -12146,7 +12155,7 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="133" spans="1:1">
@@ -12161,12 +12170,12 @@
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -12186,7 +12195,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -12221,7 +12230,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -12231,7 +12240,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -12246,7 +12255,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -12283,12 +12292,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1053</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -12298,17 +12307,17 @@
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="1" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -12318,37 +12327,37 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="1" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -12358,7 +12367,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -12368,22 +12377,22 @@
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -12393,22 +12402,22 @@
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="27" spans="1:1">
@@ -12418,22 +12427,22 @@
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>943</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -12448,22 +12457,22 @@
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
     </row>
     <row r="38" spans="1:1">
@@ -12473,22 +12482,22 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -12498,27 +12507,27 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -12533,22 +12542,22 @@
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -12558,22 +12567,22 @@
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="60" spans="1:1">
@@ -12583,32 +12592,32 @@
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -12623,17 +12632,17 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="72" spans="1:1">
@@ -12643,22 +12652,22 @@
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -12668,32 +12677,32 @@
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="84" spans="1:1">
@@ -12713,22 +12722,22 @@
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="91" spans="1:1">
@@ -12738,22 +12747,22 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -12763,32 +12772,32 @@
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -12803,22 +12812,22 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="109" spans="1:1">
@@ -12828,22 +12837,22 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1035</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="114" spans="1:1">
@@ -12853,27 +12862,27 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="120" spans="1:1">
@@ -12888,22 +12897,22 @@
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="1:1">
@@ -12913,22 +12922,22 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -12938,32 +12947,32 @@
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="138" spans="1:1">
@@ -12978,17 +12987,17 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="143" spans="1:1">
@@ -12998,22 +13007,22 @@
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -13023,22 +13032,22 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
     </row>
     <row r="153" spans="1:1">
@@ -13859,12 +13868,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="204">
       <c r="A1" s="1" t="s">
-        <v>1052</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -13879,7 +13888,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -13904,7 +13913,7 @@
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -13934,7 +13943,7 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:1">
@@ -13974,7 +13983,7 @@
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -14004,12 +14013,12 @@
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>232</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="32" spans="1:1">
@@ -14049,7 +14058,7 @@
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="40" spans="1:1">
@@ -14064,7 +14073,7 @@
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:1">
@@ -14074,17 +14083,17 @@
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="47" spans="1:1">
@@ -14094,7 +14103,7 @@
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="49" spans="1:1">
@@ -14114,7 +14123,7 @@
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="53" spans="1:1">
@@ -14124,7 +14133,7 @@
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:1">
@@ -14139,7 +14148,7 @@
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="58" spans="1:1">
@@ -14164,7 +14173,7 @@
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="63" spans="1:1">
@@ -14184,7 +14193,7 @@
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="67" spans="1:1">
@@ -14199,7 +14208,7 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="70" spans="1:1">
@@ -14234,7 +14243,7 @@
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77" spans="1:1">
@@ -14254,7 +14263,7 @@
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="81" spans="1:1">
@@ -14294,7 +14303,7 @@
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="89" spans="1:1">
@@ -14314,7 +14323,7 @@
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="93" spans="1:1">
@@ -14329,7 +14338,7 @@
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="96" spans="1:1">
@@ -14359,7 +14368,7 @@
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="102" spans="1:1">
@@ -14379,7 +14388,7 @@
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="106" spans="1:1">
@@ -14404,7 +14413,7 @@
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>1031</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="111" spans="1:1">
@@ -14429,17 +14438,17 @@
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="118" spans="1:1">
@@ -14489,7 +14498,7 @@
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="128" spans="1:1">
@@ -14499,12 +14508,12 @@
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:1">
@@ -14534,7 +14543,7 @@
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="137" spans="1:1">
@@ -14554,7 +14563,7 @@
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
     </row>
     <row r="141" spans="1:1">
@@ -14589,7 +14598,7 @@
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="148" spans="1:1">
@@ -14599,7 +14608,7 @@
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="150" spans="1:1">
@@ -14614,7 +14623,7 @@
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
     </row>
     <row r="153" spans="1:1">
